--- a/documents/VL MES-PWGSC Mapping.xlsx
+++ b/documents/VL MES-PWGSC Mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12220" yWindow="-280" windowWidth="12980" windowHeight="12280"/>
+    <workbookView xWindow="-21000" yWindow="-15600" windowWidth="21000" windowHeight="33160"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata Element Set" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +290,22 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -359,8 +375,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -471,7 +491,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -784,9 +808,9 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B45" sqref="B45"/>
+      <selection pane="topRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
